--- a/examples/apex_USp/src/xcku15p-ffva1760-2_GTH.xlsx
+++ b/examples/apex_USp/src/xcku15p-ffva1760-2_GTH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTH_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6990" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6991" uniqueCount="1699">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4944,6 +4944,9 @@
   </si>
   <si>
     <t xml:space="preserve">mgt_gth_rx_if[0].rxoutclk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bufg_gt_tux</t>
   </si>
   <si>
     <t xml:space="preserve">mgt_gth_rx_if[1].rxoutclk</t>
@@ -5282,7 +5285,7 @@
   <dimension ref="A1:F839"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="G246 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="E24:E27 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11971,8 +11974,8 @@
   </sheetPr>
   <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G246" activeCellId="0" sqref="G246"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="E24:E27 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12300,8 +12303,8 @@
       <c r="B17" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>855</v>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>515</v>
@@ -12337,8 +12340,8 @@
       <c r="B19" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>855</v>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>16</v>
@@ -12357,8 +12360,8 @@
       <c r="B20" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>855</v>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -17619,7 +17622,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="G246 K9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="E24:E27 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18906,7 +18909,7 @@
   <dimension ref="A1:G2299"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="G246 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E24:E27 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44926,7 +44929,7 @@
   <dimension ref="A1:H723"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="G246 C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="E24:E27 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53038,7 +53041,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M44" activeCellId="1" sqref="G246 M44"/>
+      <selection pane="topLeft" activeCell="M44" activeCellId="1" sqref="E24:E27 M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56275,8 +56278,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="1" sqref="G246 B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56544,6 +56547,9 @@
       <c r="C24" s="0" t="s">
         <v>1638</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>1639</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -56553,6 +56559,9 @@
         <v>1622</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>1639</v>
       </c>
     </row>
@@ -56564,7 +56573,10 @@
         <v>1623</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1640</v>
+        <v>1641</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56575,34 +56587,37 @@
         <v>1624</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1641</v>
+        <v>1642</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>1637</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>1632</v>
@@ -56610,7 +56625,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>1632</v>
@@ -56635,7 +56650,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="G246 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="E24:E27 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56659,7 +56674,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56672,10 +56687,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1618</v>
@@ -56683,246 +56698,246 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B10" s="6" t="n">
         <f aca="false">B8</f>
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B11" s="6" t="n">
         <f aca="false">B9/B5</f>
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>528</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>881</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>823</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>732</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>798</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>661</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>717</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>646</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>700</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>639</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>511</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>901</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
